--- a/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,12 +633,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -647,12 +648,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,12 +663,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0; 0,35</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0,0; 2,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,17; 2,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,0; 1,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,94; 3,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 8,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,62; 3,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,5; 3,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,33; 4,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,86; 3,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,94; 2,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,57; 5,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,0; 2,86</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,04%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>7,48; 11,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,19</t>
+          <t>2,26; 13,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,23</t>
+          <t>7,88; 14,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>4,06; 7,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>10,53; 17,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>3,86; 8,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,23; 9,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,09</t>
+          <t>5,01; 13,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,1; 1,06</t>
+          <t>6,65; 10,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>27,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>28,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>23,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>24,15%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>26,54%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>21,28%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,56</t>
+          <t>24,43; 31,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,96</t>
+          <t>24,31; 33,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,07</t>
+          <t>18,84; 28,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,52</t>
+          <t>11,15; 15,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,18</t>
+          <t>20,81; 27,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>15,95; 23,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,02</t>
+          <t>17,99; 22,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,47</t>
+          <t>23,65; 29,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,46</t>
+          <t>18,34; 24,52</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>38,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>47,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>43,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>36,5%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>62,44%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>39,74%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,32</t>
+          <t>34,13; 42,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 5,23</t>
+          <t>41,45; 52,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,56</t>
+          <t>38,49; 47,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 3,81</t>
+          <t>27,34; 34,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,2; 3,11</t>
+          <t>42,76; 89,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,79</t>
+          <t>32,3; 40,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,8</t>
+          <t>31,76; 37,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,77</t>
+          <t>44,46; 82,2</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,67</t>
+          <t>36,89; 43,18</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>55,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,49%</t>
+          <t>45,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>52,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>59,93%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>57,42%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>52,44%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,36; 14,39</t>
+          <t>52,14; 61,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,61</t>
+          <t>49,28; 62,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,59; 11,71</t>
+          <t>40,4; 49,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,88; 8,52</t>
+          <t>49,12; 56,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,5; 15,86</t>
+          <t>55,44; 64,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 6,57</t>
+          <t>52,91; 61,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 10,56</t>
+          <t>51,57; 57,39</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,36; 15,33</t>
+          <t>54,26; 62,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,74</t>
+          <t>49,13; 55,46</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,57%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,53%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>25,23%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>16,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>16,45%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,24; 27,84</t>
+          <t>19,73; 22,5</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,52; 31,82</t>
+          <t>9,87; 19,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,1; 30,69</t>
+          <t>14,87; 17,56</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,14; 24,17</t>
+          <t>16,66; 19,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,61; 28,27</t>
+          <t>18,74; 46,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,54; 15,9</t>
+          <t>15,45; 18,02</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,89; 24,58</t>
+          <t>18,51; 20,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,33; 28,83</t>
+          <t>16,99; 33,0</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>18,25; 22,02</t>
+          <t>15,54; 17,35</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>42,7%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>47,72%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>40,06%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>37,1%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>56,49%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>30,43%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>40,16%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>52,85%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>35,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>38,39; 46,69</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>43,28; 51,86</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>36,53; 43,68</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>32,87; 41,45</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>44,69; 79,18</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>27,35; 33,63</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>37,41; 43,1</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>45,68; 68,06</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>32,69; 37,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>45,86%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>57,75%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>56,43%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>57,76%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>64,47%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>53,66%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>52,15%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>61,84%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>54,81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>41,05; 50,23</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>52,62; 62,17</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>52,46; 60,59</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>53,59; 62,22</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>60,96; 67,36</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>50,29; 56,75</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>48,94; 55,16</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>59,01; 64,47</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>52,16; 57,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>21,13%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>19,27%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>18,45%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>20,66%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>23,13%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>15,82%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>20,89%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>21,31%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>17,1%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>19,61; 22,72</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>17,88; 20,82</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>17,48; 19,54</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>19,19; 22,2</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>20,47; 31,69</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>14,8; 16,83</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>19,81; 21,95</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>19,82; 26,45</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>16,3; 17,78</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la tensión arterial</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1621</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1879</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1196</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 344</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8785</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1207</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1889</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8885</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1204</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2926</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3825</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 653</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4579</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3723</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 326</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>540; 9071</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2826</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 813</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>894; 9823</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4010</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1859</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15861</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1350</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8276</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5211</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3209</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24137</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8791</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>891; 3549</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>8554; 25454</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1549; 7719</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>483; 2958</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4285; 13344</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2133; 9810</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1808; 5359</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16253; 35912</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4991; 14197</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>13183</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>47668</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>31592</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7595</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>53015</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16247</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20778</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>100684</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>47839</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10429; 16488</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14189; 85093</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>23419; 41947</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5607; 9998</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>42624; 69907</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>10774; 24072</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17274; 25078</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>51662; 137701</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>38328; 60241</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>35352</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>97624</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>55179</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19985</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>77023</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>48838</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>55337</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>174647</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>104017</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>30994; 40152</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>82434; 114103</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>44223; 66339</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16423; 23549</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>66371; 88936</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>40538; 59715</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>49315; 61299</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>155625; 194882</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>89654; 119864</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>463</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>40938</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>98554</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>79274</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>35612</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>313456</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>68858</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>76550</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>412010</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>148132</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>36728; 45784</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>85880; 109315</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>70844; 86966</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>31415; 39802</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>193549; 405014</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>60948; 77237</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>70680; 83261</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>293376; 542395</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>137503; 160955</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>54732</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>84447</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>66276</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>70442</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>139994</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>121638</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>125175</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>224441</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>187913</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>50243; 58954</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>74788; 94451</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>59194; 72697</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>65792; 76110</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>129513; 150856</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>112082; 130779</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>118762; 132160</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>209108; 239074</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>176057; 198747</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>837</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>804</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1641</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>146740</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>345052</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>236621</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>134984</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>596311</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>261292</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>281725</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>941364</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>497913</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>137498; 156796</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>207346; 402361</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>217511; 256848</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>126077; 144606</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>418123; 1037618</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>241630; 281883</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>269027; 295664</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>736131; 1430080</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>470433; 525097</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
@@ -691,17 +691,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 4766</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0; 1196</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0; 344</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0; 1207</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0; 1204</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1944,7 +1944,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 326</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial</t>
+          <t>Consumo de medicamentos para la tensión arterial (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la tensión arterial</t>
+          <t>Consumo de medicamentos para la tensión arterial (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,99</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,77</t>
+          <t>0,0; 4,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,51</t>
+          <t>0,0; 1,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,11</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 2,88</t>
+          <t>0,05; 2,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,62</t>
+          <t>0,0; 0,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,81</t>
+          <t>0,18; 1,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,75</t>
+          <t>0,7; 2,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 8,19</t>
+          <t>2,83; 8,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,03</t>
+          <t>0,38; 2,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 4,14</t>
+          <t>1,35; 4,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,79</t>
+          <t>0,69; 2,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 5,67</t>
+          <t>2,39; 5,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,48; 11,83</t>
+          <t>6,0; 9,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 13,57</t>
+          <t>2,8; 13,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,25</t>
+          <t>4,48; 8,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 17,27</t>
+          <t>10,51; 18,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 9,04</t>
+          <t>5,66; 8,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,01; 13,34</t>
+          <t>4,64; 13,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,87%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24,43; 31,65</t>
+          <t>21,68; 28,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>24,31; 33,65</t>
+          <t>24,7; 33,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,15; 15,98</t>
+          <t>11,61; 16,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,81; 27,89</t>
+          <t>20,57; 27,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,99; 22,36</t>
+          <t>17,18; 21,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,65; 29,62</t>
+          <t>23,91; 29,77</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,99%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,13; 42,55</t>
+          <t>35,55; 43,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>41,45; 52,76</t>
+          <t>41,76; 53,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>27,34; 34,64</t>
+          <t>26,22; 33,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,76; 89,48</t>
+          <t>42,72; 91,65</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>31,76; 37,42</t>
+          <t>31,58; 36,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>44,46; 82,2</t>
+          <t>44,2; 85,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>56,8%</t>
+          <t>56,58%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>52,6%</t>
+          <t>51,11%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>54,36%</t>
+          <t>53,32%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>52,14; 61,18</t>
+          <t>52,26; 60,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49,28; 62,23</t>
+          <t>48,95; 61,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>49,12; 56,83</t>
+          <t>47,32; 54,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,44; 64,58</t>
+          <t>55,33; 64,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>51,57; 57,39</t>
+          <t>50,57; 56,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>54,26; 62,04</t>
+          <t>54,48; 62,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,73; 22,5</t>
+          <t>17,74; 20,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,87; 19,15</t>
+          <t>10,46; 19,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,66; 19,11</t>
+          <t>15,67; 17,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,74; 46,5</t>
+          <t>18,68; 50,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,51; 20,34</t>
+          <t>16,9; 18,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,99; 33,0</t>
+          <t>17,01; 33,26</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>469</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>546</t>
+          <t>469</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1879</t>
+          <t>0; 1553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0; 8785</t>
+          <t>0; 7411</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0; 1889</t>
+          <t>0; 1646</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0; 8885</t>
+          <t>0; 7981</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>116</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 653</t>
+          <t>0; 597</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 4579</t>
+          <t>0; 5411</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>540; 9071</t>
+          <t>145; 8376</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 813</t>
+          <t>0; 684</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>894; 9823</t>
+          <t>974; 9929</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1859</t>
+          <t>1463</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3209</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>891; 3549</t>
+          <t>724; 2981</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8554; 25454</t>
+          <t>8790; 26245</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>483; 2958</t>
+          <t>422; 2233</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4285; 13344</t>
+          <t>4367; 13798</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1808; 5359</t>
+          <t>1476; 4299</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16253; 35912</t>
+          <t>15165; 34203</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13183</t>
+          <t>11160</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7595</t>
+          <t>9339</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20778</t>
+          <t>20500</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10429; 16488</t>
+          <t>8691; 14239</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14189; 85093</t>
+          <t>17563; 83699</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5607; 9998</t>
+          <t>6840; 12467</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42624; 69907</t>
+          <t>42528; 73296</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17274; 25078</t>
+          <t>16834; 24641</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>51662; 137701</t>
+          <t>47841; 139822</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35352</t>
+          <t>32522</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19985</t>
+          <t>21093</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>55337</t>
+          <t>53615</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>30994; 40152</t>
+          <t>28098; 37182</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>82434; 114103</t>
+          <t>83768; 114630</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16423; 23549</t>
+          <t>17644; 25527</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>66371; 88936</t>
+          <t>65605; 88042</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>49315; 61299</t>
+          <t>48352; 59576</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>155625; 194882</t>
+          <t>157363; 195911</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>40938</t>
+          <t>41036</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35612</t>
+          <t>34628</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>76550</t>
+          <t>75664</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>36728; 45784</t>
+          <t>37133; 45827</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>85880; 109315</t>
+          <t>86525; 109823</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>31415; 39802</t>
+          <t>30353; 38981</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>193549; 405014</t>
+          <t>193359; 414846</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>70680; 83261</t>
+          <t>69547; 81295</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>293376; 542395</t>
+          <t>291641; 561683</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>54732</t>
+          <t>50484</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>70442</t>
+          <t>67629</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>125175</t>
+          <t>118114</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>50243; 58954</t>
+          <t>46624; 54363</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>74788; 94451</t>
+          <t>74301; 93614</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>65792; 76110</t>
+          <t>62607; 72577</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>129513; 150856</t>
+          <t>129258; 149793</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>118762; 132160</t>
+          <t>112032; 124665</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>209108; 239074</t>
+          <t>209945; 239899</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>146740</t>
+          <t>137250</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>134984</t>
+          <t>133760</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>281725</t>
+          <t>271010</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>137498; 156796</t>
+          <t>128385; 146037</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>207346; 402361</t>
+          <t>219925; 403647</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>126077; 144606</t>
+          <t>125013; 143100</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>418123; 1037618</t>
+          <t>416876; 1119986</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>269027; 295664</t>
+          <t>257153; 283435</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>736131; 1430080</t>
+          <t>737189; 1441057</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_TEN-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,61%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0,93%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,88%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,33%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,02</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,21</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,21</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,02</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0,0; 1,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,9</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,39%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,4%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,15%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,39%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,93%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,24%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>0,72%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,08%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,31%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,04</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,8</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,04</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0,25; 2,75</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,34</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,05; 2,66</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,34</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,19; 1,69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,02</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 0,48</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,18; 1,83</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,02</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,41%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,1%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,44%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,97%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,94%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,18%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,81%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,13; 8,54</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 3,11</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,7; 2,87</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 8,45</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 3,11</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1,39; 4,16</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 3,95</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,38; 2,02</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1,35; 4,28</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 3,95</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,62; 5,53</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,0; 2,86</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,69; 2,0</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 5,4</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 2,86</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>11,61%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>7,71%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,6%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>12,35%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,12%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,1%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>5,82%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>11,99%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>6,89%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>9,76%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>8,7; 15,11</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7,88; 14,12</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>6,0; 9,83</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 13,35</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 14,12</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>10,24; 15,33</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 8,63</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>4,48; 8,17</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10,51; 18,11</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,86; 8,63</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>10,12; 14,31</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 10,46</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5,66; 8,29</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>4,64; 13,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 10,46</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>28,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23,51%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>25,1%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>28,79%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>23,51%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>25,09%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>19,22%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>13,88%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>24,15%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>19,22%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>26,58%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21,28%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>19,05%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>26,54%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>21,28%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>23,8; 32,66</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18,84; 28,27</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>21,68; 28,69</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>24,7; 33,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>18,84; 28,27</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>21,49; 28,56</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>15,95; 23,5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>11,61; 16,8</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>20,57; 27,61</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>15,95; 23,5</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>23,99; 29,63</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18,34; 24,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>17,18; 21,16</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>23,91; 29,77</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>18,34; 24,52</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>46,2%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>43,07%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>39,28%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>47,56%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>43,07%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>45,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>36,5%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>29,91%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>69,25%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>36,5%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>45,55%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>39,74%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>34,35%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>62,44%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>39,74%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>40,24; 51,57</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>38,49; 47,25</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>35,55; 43,87</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>41,76; 53,0</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>38,49; 47,25</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>40,35; 49,09</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32,3; 40,94</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>26,22; 33,67</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>42,72; 91,65</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>32,3; 40,94</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>42,11; 49,08</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>36,89; 43,18</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>31,58; 36,91</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>44,2; 85,12</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>36,89; 43,18</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>55,89%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45,23%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>56,58%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>55,64%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>45,23%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>59,8%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>57,42%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>51,11%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>59,93%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>57,42%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>58,27%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>52,44%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>53,32%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>58,24%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>52,44%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>49,19; 62,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40,4; 49,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>52,26; 60,93</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>48,95; 61,68</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>40,4; 49,61</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>55,08; 64,12</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>52,91; 61,74</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>47,32; 54,85</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>55,33; 64,12</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>52,91; 61,74</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>54,54; 62,44</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>49,13; 55,46</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>50,57; 56,27</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>54,48; 62,25</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>49,13; 55,46</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>18,06%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>18,96%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>16,42%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>16,17%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16,71%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>16,77%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>26,72%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>16,71%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>18,91%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16,45%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>17,81%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>21,73%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>16,45%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>16,47; 19,74</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14,87; 17,56</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>17,74; 20,17</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>10,46; 19,21</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>14,87; 17,56</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>18,44; 21,13</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>15,45; 18,02</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>15,67; 17,94</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>18,68; 50,19</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>15,45; 18,02</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>17,89; 20,03</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15,54; 17,35</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>16,9; 18,63</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>17,01; 33,26</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>15,54; 17,35</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>469</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2032</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>469</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0; 1553</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 9255</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10171</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0; 7411</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0; 1646</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0; 7981</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1838,32 +1838,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>1</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
@@ -1876,47 +1876,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>116</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>899</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>720</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2923</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2926</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1220</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>116</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3825</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1220</t>
         </is>
       </c>
     </row>
@@ -1929,47 +1929,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0; 6017</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3723</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0; 597</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0; 5411</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0; 3723</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>718; 7804</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2826</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>145; 8376</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 2826</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>1034; 9216</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4010</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0; 684</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>974; 9929</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0; 4010</t>
         </is>
       </c>
     </row>
@@ -1986,42 +1986,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>30</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>19587</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3580</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1463</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>15861</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3580</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>9635</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5211</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1070</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>8276</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5211</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>29222</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>8791</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2533</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>24137</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>8791</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>11542; 31471</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1549; 7719</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>724; 2981</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>8790; 26245</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1549; 7719</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5178; 15541</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2133; 9810</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>422; 2233</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4367; 13798</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2133; 9810</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>19425; 41004</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4991; 14197</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>1476; 4299</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>15165; 34203</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4991; 14197</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>70</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>119</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>81</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>49234</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>31592</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>11160</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>47668</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>31592</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>54478</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>16247</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>9339</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>53015</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>16247</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>103712</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>47839</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>20500</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>100684</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>47839</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>36884; 64057</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23419; 41947</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>8691; 14239</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>17563; 83699</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>23419; 41947</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>45173; 67669</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10774; 24072</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>6840; 12467</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>42528; 73296</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>10774; 24072</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>87532; 123832</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>38328; 60241</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>16834; 24641</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>47841; 139822</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>38328; 60241</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>193</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>120</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>313</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>258</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>175</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>103181</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>55179</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>32522</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>97624</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>55179</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>90428</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>48838</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>21093</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>77023</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>48838</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>193610</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>104017</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>53615</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>174647</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>104017</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>87594; 120209</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>44223; 66339</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>28098; 37182</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>83768; 114630</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>44223; 66339</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>77440; 102915</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>40538; 59715</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>17644; 25527</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>65605; 88042</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>40538; 59715</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>174760; 215805</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>89654; 119864</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>48352; 59576</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>157363; 195911</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>89654; 119864</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>248</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>215</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>216</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>184</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>463</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>437</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>106431</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>79274</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>41036</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>98554</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>79274</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>121513</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>68858</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>34628</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>313456</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>68858</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>227943</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>148132</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>75664</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>412010</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>148132</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>92700; 118800</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>70844; 86966</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>37133; 45827</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>86525; 109823</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>70844; 86966</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>108960; 132563</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>60948; 77237</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>30353; 38981</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>193359; 414846</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>60948; 77237</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>210686; 245577</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>137503; 160955</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>69547; 81295</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>291641; 561683</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>137503; 160955</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>314</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>414</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>266</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>528</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>728</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>398</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>528</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>92537</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>66276</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>50484</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>84447</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>66276</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>153456</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>121638</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>67629</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>139994</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>121638</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>245993</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>187913</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>118114</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>224441</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>187913</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>81452; 102664</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>59194; 72697</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>46624; 54363</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>74301; 93614</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>59194; 72697</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>141346; 164526</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>112082; 130779</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>62607; 72577</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>129258; 149793</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>112082; 130779</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>230246; 263625</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>176057; 198747</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>112032; 124665</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>209945; 239899</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>176057; 198747</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>837</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>460</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>630</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>726</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>804</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>726</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>608</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>1186</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>1641</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>1186</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>1238</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>371994</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>236621</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>137250</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>345052</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>236621</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>434466</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>261292</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>133760</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>596311</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>261292</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>806459</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>497913</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>271010</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>941364</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>497913</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>339238; 406549</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>217511; 256848</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>128385; 146037</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>219925; 403647</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>217511; 256848</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>406673; 465918</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>241630; 281883</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>125013; 143100</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>416876; 1119986</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>241630; 281883</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>763079; 854122</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>470433; 525097</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>257153; 283435</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>737189; 1441057</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>470433; 525097</t>
         </is>
       </c>
     </row>
